--- a/biology/Médecine/Facteur_neurotrophe/Facteur_neurotrophe.xlsx
+++ b/biology/Médecine/Facteur_neurotrophe/Facteur_neurotrophe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs neurotrophes ou neurotrophiques forment une famille de protéines responsables de la croissance et de la survie des neurones en développement et de l'entretien des neurones matures. Des recherches récentes ont prouvé qu'ils sont capables de faire repousser des neurones endommagés, in vitro et in vivo. Les facteurs neurotrophes sont souvent libérés par le tissu cible afin de guider la croissance des axones en développement. 
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[1]
-Chaque famille a sa propre signalisation mais les réponses cellulaires se chevauchent[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Chaque famille a sa propre signalisation mais les réponses cellulaires se chevauchent.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Usages thérapeutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs neurotrophes sont prometteurs dans le traitement des lésions cérébrales et de la neurodégénérescence associée à l'âge.
 </t>
@@ -574,9 +590,11 @@
           <t>Modes d'administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méthode d'administration par voie intranasale a un grand potentiel clinique parce qu'elle est simple, non invasive, rapide d'action, facile à répéter, efficace sans modification du facteur neurotrophe et parce qu'elle a très peu d'effets systémiques[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthode d'administration par voie intranasale a un grand potentiel clinique parce qu'elle est simple, non invasive, rapide d'action, facile à répéter, efficace sans modification du facteur neurotrophe et parce qu'elle a très peu d'effets systémiques.
 </t>
         </is>
       </c>
